--- a/tugas1.xlsx
+++ b/tugas1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\repos\py-spk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parkrapidsk12mn-my.sharepoint.com/personal/yosiro_catty07_onmicrosoft_com/Documents/Documents/Coding/py-statistika-pengawasan-kualitas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B9956-9FF2-41C4-AFFD-D2C923167BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{299B9956-9FF2-41C4-AFFD-D2C923167BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A2E862-AD12-4D29-BF9F-07A813753556}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2940" windowWidth="21630" windowHeight="11310" xr2:uid="{434CC546-C933-4F4A-A3BA-B2764280891B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{434CC546-C933-4F4A-A3BA-B2764280891B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,13 +433,13 @@
       <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="2" max="6" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1.6733200530681511</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>2.6076809620810595</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1.5811388300841898</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -596,7 +596,7 @@
         <v>1.6431676725154982</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1.1401754250991381</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1.51657508881031</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -724,7 +724,7 @@
         <v>4.3817804600413339</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -756,7 +756,7 @@
         <v>5.4313902456001077</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2.5495097567963922</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -820,7 +820,7 @@
         <v>1.7888543819998317</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>3.8078865529319543</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1.7888543819998317</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2.6076809620810595</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -980,7 +980,7 @@
         <v>2.4899799195977463</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1.51657508881031</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>3.4205262752974206</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2.3874672772626644</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
